--- a/trend/LeverageFactors.xlsx
+++ b/trend/LeverageFactors.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\transfer\trend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="-80" windowWidth="21600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="3525" yWindow="-75" windowWidth="21600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>STERLING, SHORT</t>
   </si>
@@ -625,19 +630,16 @@
   </si>
   <si>
     <t>SS</t>
+  </si>
+  <si>
+    <t>$/point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -683,6 +685,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1005,19 +1015,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="B1:E99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1">
+    <row r="1" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
@@ -1030,8 +1040,11 @@
       <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="2:5">
+      <c r="G1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>72</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="E2">
         <v>69.459999999999994</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="G2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>74</v>
       </c>
@@ -1058,8 +1074,11 @@
       <c r="E3">
         <v>69.459999999999994</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="G3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>76</v>
       </c>
@@ -1072,8 +1091,11 @@
       <c r="E4">
         <v>6673</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>70</v>
       </c>
@@ -1086,8 +1108,11 @@
       <c r="E5">
         <v>13114</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>78</v>
       </c>
@@ -1100,8 +1125,11 @@
       <c r="E6">
         <v>68.91</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="G6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>80</v>
       </c>
@@ -1114,8 +1142,11 @@
       <c r="E7">
         <v>620.25</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="G7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>82</v>
       </c>
@@ -1128,8 +1159,11 @@
       <c r="E8">
         <v>131.88</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="G8">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>84</v>
       </c>
@@ -1142,8 +1176,11 @@
       <c r="E9">
         <v>34.520000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="G9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -1156,8 +1193,11 @@
       <c r="E10">
         <v>384.75</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>88</v>
       </c>
@@ -1170,8 +1210,11 @@
       <c r="E11">
         <v>6005</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>90</v>
       </c>
@@ -1184,8 +1227,11 @@
       <c r="E12">
         <v>138.80000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="G12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>92</v>
       </c>
@@ -1198,8 +1244,11 @@
       <c r="E13">
         <v>2484</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>94</v>
       </c>
@@ -1212,8 +1261,11 @@
       <c r="E14">
         <v>63.27</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="G14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>96</v>
       </c>
@@ -1226,8 +1278,11 @@
       <c r="E15">
         <v>77.144999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="G15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>98</v>
       </c>
@@ -1240,8 +1295,11 @@
       <c r="E16">
         <v>541.5</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>100</v>
       </c>
@@ -1254,8 +1312,11 @@
       <c r="E17">
         <v>70.040000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="G17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>102</v>
       </c>
@@ -1268,8 +1329,11 @@
       <c r="E18">
         <v>17.03</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="G18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>104</v>
       </c>
@@ -1282,8 +1346,11 @@
       <c r="E19">
         <v>18018</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>106</v>
       </c>
@@ -1296,8 +1363,11 @@
       <c r="E20">
         <v>172.24</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="G20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>108</v>
       </c>
@@ -1310,8 +1380,11 @@
       <c r="E21">
         <v>96.35</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="G21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>71</v>
       </c>
@@ -1324,8 +1397,11 @@
       <c r="E22">
         <v>98.275000000000006</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="G22">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>110</v>
       </c>
@@ -1338,8 +1414,11 @@
       <c r="E23">
         <v>98.275000000000006</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="G23">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>112</v>
       </c>
@@ -1352,8 +1431,11 @@
       <c r="E24">
         <v>8847.5</v>
       </c>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="G24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>114</v>
       </c>
@@ -1366,8 +1448,11 @@
       <c r="E25">
         <v>1663</v>
       </c>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="G25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>116</v>
       </c>
@@ -1380,8 +1465,11 @@
       <c r="E26">
         <v>3243.5</v>
       </c>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="G26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>118</v>
       </c>
@@ -1394,8 +1482,11 @@
       <c r="E27">
         <v>118.960937999999</v>
       </c>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="G27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>120</v>
       </c>
@@ -1408,8 +1499,11 @@
       <c r="E28">
         <v>118.960937999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="G28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>122</v>
       </c>
@@ -1422,8 +1516,11 @@
       <c r="E29">
         <v>146.35</v>
       </c>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="G29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>124</v>
       </c>
@@ -1436,8 +1533,11 @@
       <c r="E30">
         <v>98.447999999999993</v>
       </c>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="G30">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>126</v>
       </c>
@@ -1450,8 +1550,11 @@
       <c r="E31">
         <v>112.405</v>
       </c>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="G31">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>128</v>
       </c>
@@ -1464,8 +1567,11 @@
       <c r="E32">
         <v>112.405</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="G32">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>130</v>
       </c>
@@ -1478,8 +1584,11 @@
       <c r="E33">
         <v>1568.8</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="G33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>132</v>
       </c>
@@ -1492,8 +1601,11 @@
       <c r="E34">
         <v>444.85</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>134</v>
       </c>
@@ -1506,8 +1618,11 @@
       <c r="E35">
         <v>131.94999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="G35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>136</v>
       </c>
@@ -1520,8 +1635,11 @@
       <c r="E36">
         <v>279</v>
       </c>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="G36">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>138</v>
       </c>
@@ -1534,8 +1652,11 @@
       <c r="E37">
         <v>203.39</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="G37">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>140</v>
       </c>
@@ -1548,8 +1669,11 @@
       <c r="E38">
         <v>28176</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="G38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>142</v>
       </c>
@@ -1562,8 +1686,11 @@
       <c r="E39">
         <v>92.55</v>
       </c>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="G39">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>144</v>
       </c>
@@ -1576,8 +1703,11 @@
       <c r="E40">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="G40">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>146</v>
       </c>
@@ -1590,8 +1720,11 @@
       <c r="E41">
         <v>122.15</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="G41">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>148</v>
       </c>
@@ -1604,8 +1737,11 @@
       <c r="E42">
         <v>477.25</v>
       </c>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="G42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>150</v>
       </c>
@@ -1618,8 +1754,11 @@
       <c r="E43">
         <v>420</v>
       </c>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="G43">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>152</v>
       </c>
@@ -1632,8 +1771,11 @@
       <c r="E44">
         <v>127.27500000000001</v>
       </c>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="G44">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>154</v>
       </c>
@@ -1646,8 +1788,11 @@
       <c r="E45">
         <v>68.625</v>
       </c>
-    </row>
-    <row r="46" spans="2:5">
+      <c r="G45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>156</v>
       </c>
@@ -1660,8 +1805,11 @@
       <c r="E46">
         <v>7505</v>
       </c>
-    </row>
-    <row r="47" spans="2:5">
+      <c r="G46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>159</v>
       </c>
@@ -1674,8 +1822,11 @@
       <c r="E47">
         <v>2055.1</v>
       </c>
-    </row>
-    <row r="48" spans="2:5">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>161</v>
       </c>
@@ -1688,8 +1839,11 @@
       <c r="E48">
         <v>5.2519999999999997E-2</v>
       </c>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="G48">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>163</v>
       </c>
@@ -1702,8 +1856,11 @@
       <c r="E49">
         <v>548</v>
       </c>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="G49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>165</v>
       </c>
@@ -1716,8 +1873,11 @@
       <c r="E50">
         <v>4488.75</v>
       </c>
-    </row>
-    <row r="51" spans="2:5">
+      <c r="G50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>167</v>
       </c>
@@ -1730,8 +1890,11 @@
       <c r="E51">
         <v>2.1349999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="2:5">
+      <c r="G51">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>169</v>
       </c>
@@ -1744,8 +1907,11 @@
       <c r="E52">
         <v>23345</v>
       </c>
-    </row>
-    <row r="53" spans="2:5">
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>171</v>
       </c>
@@ -1758,8 +1924,11 @@
       <c r="E53">
         <v>1305.5</v>
       </c>
-    </row>
-    <row r="54" spans="2:5">
+      <c r="G53">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>173</v>
       </c>
@@ -1772,8 +1941,11 @@
       <c r="E54">
         <v>294.25</v>
       </c>
-    </row>
-    <row r="55" spans="2:5">
+      <c r="G54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>175</v>
       </c>
@@ -1786,8 +1958,11 @@
       <c r="E55">
         <v>1989.6</v>
       </c>
-    </row>
-    <row r="56" spans="2:5">
+      <c r="G55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>177</v>
       </c>
@@ -1800,8 +1975,11 @@
       <c r="E56">
         <v>966.2</v>
       </c>
-    </row>
-    <row r="57" spans="2:5">
+      <c r="G56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>179</v>
       </c>
@@ -1814,8 +1992,11 @@
       <c r="E57">
         <v>175.44</v>
       </c>
-    </row>
-    <row r="58" spans="2:5">
+      <c r="G57">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>181</v>
       </c>
@@ -1828,8 +2009,11 @@
       <c r="E58">
         <v>475.7</v>
       </c>
-    </row>
-    <row r="59" spans="2:5">
+      <c r="G58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>183</v>
       </c>
@@ -1842,8 +2026,11 @@
       <c r="E59">
         <v>944.75</v>
       </c>
-    </row>
-    <row r="60" spans="2:5">
+      <c r="G59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>185</v>
       </c>
@@ -1856,8 +2043,11 @@
       <c r="E60">
         <v>13.73</v>
       </c>
-    </row>
-    <row r="61" spans="2:5">
+      <c r="G60">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>187</v>
       </c>
@@ -1870,8 +2060,11 @@
       <c r="E61">
         <v>3243.6</v>
       </c>
-    </row>
-    <row r="62" spans="2:5">
+      <c r="G61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>189</v>
       </c>
@@ -1884,8 +2077,11 @@
       <c r="E62">
         <v>103.73</v>
       </c>
-    </row>
-    <row r="63" spans="2:5">
+      <c r="G62">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>191</v>
       </c>
@@ -1898,8 +2094,11 @@
       <c r="E63">
         <v>1817.9</v>
       </c>
-    </row>
-    <row r="64" spans="2:5">
+      <c r="G63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>193</v>
       </c>
@@ -1912,8 +2111,11 @@
       <c r="E64">
         <v>302.89999999999998</v>
       </c>
-    </row>
-    <row r="65" spans="2:5">
+      <c r="G64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>195</v>
       </c>
@@ -1926,8 +2128,11 @@
       <c r="E65">
         <v>103.73</v>
       </c>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="G65">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>197</v>
       </c>
@@ -1940,8 +2145,11 @@
       <c r="E66">
         <v>3243.6</v>
       </c>
-    </row>
-    <row r="67" spans="2:5">
+      <c r="G66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>199</v>
       </c>
@@ -1954,8 +2162,11 @@
       <c r="E67">
         <v>99.24</v>
       </c>
-    </row>
-    <row r="68" spans="2:5">
+      <c r="G67">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>1</v>
       </c>
@@ -1968,8 +2179,11 @@
       <c r="E68">
         <v>129.25</v>
       </c>
-    </row>
-    <row r="69" spans="2:5">
+      <c r="G68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>3</v>
       </c>
@@ -1982,8 +2196,11 @@
       <c r="E69">
         <v>107.796875</v>
       </c>
-    </row>
-    <row r="70" spans="2:5">
+      <c r="G69">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>5</v>
       </c>
@@ -1996,8 +2213,11 @@
       <c r="E70">
         <v>107.796875</v>
       </c>
-    </row>
-    <row r="71" spans="2:5">
+      <c r="G70">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>7</v>
       </c>
@@ -2010,8 +2230,11 @@
       <c r="E71">
         <v>129.25</v>
       </c>
-    </row>
-    <row r="72" spans="2:5">
+      <c r="G71">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>9</v>
       </c>
@@ -2024,8 +2247,11 @@
       <c r="E72">
         <v>157.84375</v>
       </c>
-    </row>
-    <row r="73" spans="2:5">
+      <c r="G72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>11</v>
       </c>
@@ -2038,8 +2264,11 @@
       <c r="E73">
         <v>134.21</v>
       </c>
-    </row>
-    <row r="74" spans="2:5">
+      <c r="G73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>13</v>
       </c>
@@ -2052,8 +2281,11 @@
       <c r="E74">
         <v>157.84375</v>
       </c>
-    </row>
-    <row r="75" spans="2:5">
+      <c r="G74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>15</v>
       </c>
@@ -2066,8 +2298,11 @@
       <c r="E75">
         <v>111.98</v>
       </c>
-    </row>
-    <row r="76" spans="2:5">
+      <c r="G75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>17</v>
       </c>
@@ -2080,8 +2315,11 @@
       <c r="E76">
         <v>999</v>
       </c>
-    </row>
-    <row r="77" spans="2:5">
+      <c r="G76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>20</v>
       </c>
@@ -2094,8 +2332,11 @@
       <c r="E77">
         <v>3739</v>
       </c>
-    </row>
-    <row r="78" spans="2:5">
+      <c r="G77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>24</v>
       </c>
@@ -2108,8 +2349,11 @@
       <c r="E78">
         <v>3390</v>
       </c>
-    </row>
-    <row r="79" spans="2:5">
+      <c r="G78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>22</v>
       </c>
@@ -2122,8 +2366,11 @@
       <c r="E79">
         <v>28642</v>
       </c>
-    </row>
-    <row r="80" spans="2:5">
+      <c r="G79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>56</v>
       </c>
@@ -2136,8 +2383,11 @@
       <c r="E80">
         <v>1989.6</v>
       </c>
-    </row>
-    <row r="81" spans="2:5">
+      <c r="G80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>48</v>
       </c>
@@ -2150,8 +2400,11 @@
       <c r="E81">
         <v>175.44</v>
       </c>
-    </row>
-    <row r="82" spans="2:5">
+      <c r="G81">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>32</v>
       </c>
@@ -2164,8 +2417,11 @@
       <c r="E82">
         <v>384.75</v>
       </c>
-    </row>
-    <row r="83" spans="2:5">
+      <c r="G82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>26</v>
       </c>
@@ -2178,8 +2434,11 @@
       <c r="E83">
         <v>18018</v>
       </c>
-    </row>
-    <row r="84" spans="2:5">
+      <c r="G83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>60</v>
       </c>
@@ -2192,8 +2451,11 @@
       <c r="E84">
         <v>146.35</v>
       </c>
-    </row>
-    <row r="85" spans="2:5">
+      <c r="G84">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>28</v>
       </c>
@@ -2206,8 +2468,11 @@
       <c r="E85">
         <v>1568.8</v>
       </c>
-    </row>
-    <row r="86" spans="2:5">
+      <c r="G85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>50</v>
       </c>
@@ -2220,8 +2485,11 @@
       <c r="E86">
         <v>203.39</v>
       </c>
-    </row>
-    <row r="87" spans="2:5">
+      <c r="G86">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>30</v>
       </c>
@@ -2234,8 +2502,11 @@
       <c r="E87">
         <v>1817.9</v>
       </c>
-    </row>
-    <row r="88" spans="2:5">
+      <c r="G87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>54</v>
       </c>
@@ -2248,8 +2519,11 @@
       <c r="E88">
         <v>279</v>
       </c>
-    </row>
-    <row r="89" spans="2:5">
+      <c r="G88">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>36</v>
       </c>
@@ -2262,8 +2536,11 @@
       <c r="E89">
         <v>34.520000000000003</v>
       </c>
-    </row>
-    <row r="90" spans="2:5">
+      <c r="G89">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>40</v>
       </c>
@@ -2276,8 +2553,11 @@
       <c r="E90">
         <v>302.89999999999998</v>
       </c>
-    </row>
-    <row r="91" spans="2:5">
+      <c r="G90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>52</v>
       </c>
@@ -2290,8 +2570,11 @@
       <c r="E91">
         <v>2.1349999999999998</v>
       </c>
-    </row>
-    <row r="92" spans="2:5">
+      <c r="G91">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>38</v>
       </c>
@@ -2304,8 +2587,11 @@
       <c r="E92">
         <v>294.25</v>
       </c>
-    </row>
-    <row r="93" spans="2:5">
+      <c r="G92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>58</v>
       </c>
@@ -2318,8 +2604,11 @@
       <c r="E93">
         <v>966.2</v>
       </c>
-    </row>
-    <row r="94" spans="2:5">
+      <c r="G93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>42</v>
       </c>
@@ -2332,8 +2621,11 @@
       <c r="E94">
         <v>1305.5</v>
       </c>
-    </row>
-    <row r="95" spans="2:5">
+      <c r="G94">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>34</v>
       </c>
@@ -2346,8 +2638,11 @@
       <c r="E95">
         <v>944.75</v>
       </c>
-    </row>
-    <row r="96" spans="2:5">
+      <c r="G95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>62</v>
       </c>
@@ -2360,8 +2655,11 @@
       <c r="E96">
         <v>127.27500000000001</v>
       </c>
-    </row>
-    <row r="97" spans="2:5">
+      <c r="G96">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>46</v>
       </c>
@@ -2374,8 +2672,11 @@
       <c r="E97">
         <v>63.27</v>
       </c>
-    </row>
-    <row r="98" spans="2:5">
+      <c r="G97">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>44</v>
       </c>
@@ -2388,8 +2689,11 @@
       <c r="E98">
         <v>550</v>
       </c>
-    </row>
-    <row r="99" spans="2:5">
+      <c r="G98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>64</v>
       </c>
@@ -2402,9 +2706,11 @@
       <c r="E99">
         <v>68.625</v>
       </c>
+      <c r="G99">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
